--- a/biology/Médecine/Scott_Peck/Scott_Peck.xlsx
+++ b/biology/Médecine/Scott_Peck/Scott_Peck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morgan Scott Peck, né le 22 mai 1936 et mort le 25 septembre 2005, est un psychiatre et auteur américain.
 </t>
@@ -511,11 +523,13 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est l'auteur, notamment, du best-seller Le Chemin le moins fréquenté, paru aux États-Unis en 1978, vendu à plus de 5 millions d’exemplaires, traduit dans une trentaine de langues, précurseur des ouvrages de développement personnel[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est l'auteur, notamment, du best-seller Le Chemin le moins fréquenté, paru aux États-Unis en 1978, vendu à plus de 5 millions d’exemplaires, traduit dans une trentaine de langues, précurseur des ouvrages de développement personnel.
 Peck a poursuivi sa réflexion sur le développement personnel dans deux autres ouvrages, Plus loin sur le chemin le moins fréquenté (1993), et Au-delà du chemin le moins fréquenté (1997).
-Il est l’auteur de nombreux autres ouvrages, mêlant expérience personnelle en tant que psychiatre et réflexions sur le sens de la vie[2].
+Il est l’auteur de nombreux autres ouvrages, mêlant expérience personnelle en tant que psychiatre et réflexions sur le sens de la vie.
 </t>
         </is>
       </c>
